--- a/data/trans_orig/IPAQ_DICO-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_DICO-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>145302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124668</v>
+        <v>121186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171106</v>
+        <v>169635</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1288138439548192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1105218227227694</v>
+        <v>0.1074344149891456</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1516897315126203</v>
+        <v>0.150385965739073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -763,19 +763,19 @@
         <v>59224</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45388</v>
+        <v>46066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75610</v>
+        <v>75921</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04701973965474965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03603441770171532</v>
+        <v>0.03657326784820295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06002899170184272</v>
+        <v>0.06027608442503173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>197</v>
@@ -784,19 +784,19 @@
         <v>204526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178831</v>
+        <v>178727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>235060</v>
+        <v>233850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08566320845869985</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0749010983256258</v>
+        <v>0.07485773776069304</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0984520054159886</v>
+        <v>0.09794539961250148</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>982695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>956891</v>
+        <v>958362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1003329</v>
+        <v>1006811</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8711861560451809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8483102684873797</v>
+        <v>0.849614034260927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8894781772772307</v>
+        <v>0.8925655850108544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1130</v>
@@ -834,19 +834,19 @@
         <v>1200337</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1183951</v>
+        <v>1183640</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1214173</v>
+        <v>1213495</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9529802603452504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9399710082981575</v>
+        <v>0.9397239155749681</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9639655822982849</v>
+        <v>0.963426732151797</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2057</v>
@@ -855,19 +855,19 @@
         <v>2183032</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2152498</v>
+        <v>2153708</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2208727</v>
+        <v>2208831</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9143367915413002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9015479945840107</v>
+        <v>0.9020546003874986</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9250989016743741</v>
+        <v>0.9251422622393072</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>136675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117097</v>
+        <v>115073</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159088</v>
+        <v>158615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1503861453859411</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1288447132286844</v>
+        <v>0.1266170624306937</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1750482444282158</v>
+        <v>0.1745272213544388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -980,19 +980,19 @@
         <v>57590</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44221</v>
+        <v>44090</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72807</v>
+        <v>72953</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05721902296492172</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04393690711538593</v>
+        <v>0.04380618167113515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07233818235876327</v>
+        <v>0.0724836751792747</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>187</v>
@@ -1001,19 +1001,19 @@
         <v>194264</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168482</v>
+        <v>169577</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>224067</v>
+        <v>222151</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1014275470054178</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08796619507216352</v>
+        <v>0.08853811127046532</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1169878406648295</v>
+        <v>0.1159874478426995</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>772150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>749737</v>
+        <v>750210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>791728</v>
+        <v>793752</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8496138546140589</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8249517555717842</v>
+        <v>0.8254727786455611</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8711552867713158</v>
+        <v>0.8733829375693063</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>894</v>
@@ -1051,19 +1051,19 @@
         <v>948885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>933668</v>
+        <v>933522</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962254</v>
+        <v>962385</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9427809770350782</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9276618176412369</v>
+        <v>0.9275163248207253</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9560630928846141</v>
+        <v>0.956193818328865</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1645</v>
@@ -1072,19 +1072,19 @@
         <v>1721036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1691233</v>
+        <v>1693149</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1746818</v>
+        <v>1745723</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8985724529945822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8830121593351705</v>
+        <v>0.8840125521573005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9120338049278366</v>
+        <v>0.9114618887295347</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>103294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83360</v>
+        <v>85062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122317</v>
+        <v>123826</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1253930358514954</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1011947686838805</v>
+        <v>0.1032601818754857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1484869773673973</v>
+        <v>0.1503180950659708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1197,19 +1197,19 @@
         <v>39158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27070</v>
+        <v>27945</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53389</v>
+        <v>52972</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05078442676204978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03510695398526096</v>
+        <v>0.03624225466648377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06924105926762081</v>
+        <v>0.06870023033164446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -1218,19 +1218,19 @@
         <v>142451</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120686</v>
+        <v>120170</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167525</v>
+        <v>167045</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08932144822070362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07567375941585396</v>
+        <v>0.07535016580553325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1050434373286074</v>
+        <v>0.1047426630753077</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>720465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>701442</v>
+        <v>699933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>740399</v>
+        <v>738697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8746069641485046</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8515130226326025</v>
+        <v>0.8496819049340291</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8988052313161194</v>
+        <v>0.8967398181245142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>691</v>
@@ -1268,19 +1268,19 @@
         <v>731901</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>717670</v>
+        <v>718087</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>743989</v>
+        <v>743114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9492155732379502</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9307589407323792</v>
+        <v>0.9312997696683556</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.964893046014739</v>
+        <v>0.9637577453335162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1381</v>
@@ -1289,19 +1289,19 @@
         <v>1452367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1427293</v>
+        <v>1427773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1474132</v>
+        <v>1474648</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9106785517792964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8949565626713928</v>
+        <v>0.8952573369246923</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.924326240584146</v>
+        <v>0.9246498341944668</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>87116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71654</v>
+        <v>70355</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105161</v>
+        <v>104643</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1719285959479638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1414124910747641</v>
+        <v>0.138848845586052</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2075405354116945</v>
+        <v>0.206517748359806</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1414,19 +1414,19 @@
         <v>39569</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28682</v>
+        <v>29251</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52755</v>
+        <v>53156</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08080354805418322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05857136399555465</v>
+        <v>0.05973288166472188</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1077298114027096</v>
+        <v>0.1085495451432634</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -1435,19 +1435,19 @@
         <v>126686</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105364</v>
+        <v>106070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148534</v>
+        <v>148811</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1271435877748421</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.105744997999985</v>
+        <v>0.106453632772807</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1490711120099481</v>
+        <v>0.1493487686945947</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>419585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>401540</v>
+        <v>402058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>435047</v>
+        <v>436346</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8280714040520362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7924594645883057</v>
+        <v>0.7934822516401939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8585875089252361</v>
+        <v>0.861151154413948</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>417</v>
@@ -1485,19 +1485,19 @@
         <v>450129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>436943</v>
+        <v>436542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>461016</v>
+        <v>460447</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9191964519458168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8922701885972908</v>
+        <v>0.8914504548567367</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9414286360044455</v>
+        <v>0.9402671183352782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>808</v>
@@ -1506,19 +1506,19 @@
         <v>869712</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>847864</v>
+        <v>847587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>891034</v>
+        <v>890328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8728564122251579</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8509288879900521</v>
+        <v>0.8506512313054051</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.894255002000015</v>
+        <v>0.8935463672271929</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>472386</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>430920</v>
+        <v>432551</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>514522</v>
+        <v>512805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1402871330655184</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1279726404022683</v>
+        <v>0.1284570487894067</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1528004855288672</v>
+        <v>0.152290436936642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>190</v>
@@ -1631,19 +1631,19 @@
         <v>195541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170788</v>
+        <v>166932</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>225731</v>
+        <v>223823</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05544438355296533</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04842574931337704</v>
+        <v>0.04733243738842555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06400459337808072</v>
+        <v>0.06346358094998923</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>636</v>
@@ -1652,19 +1652,19 @@
         <v>667927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>617754</v>
+        <v>616859</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>719552</v>
+        <v>716196</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09688424326623629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08960655762073504</v>
+        <v>0.0894766641468687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1043724836596347</v>
+        <v>0.1038856908713219</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2894896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2852760</v>
+        <v>2854477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2936362</v>
+        <v>2934731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8597128669344816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8471995144711328</v>
+        <v>0.8477095630633581</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8720273595977317</v>
+        <v>0.8715429512105933</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3132</v>
@@ -1702,19 +1702,19 @@
         <v>3331251</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3301061</v>
+        <v>3302969</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3356004</v>
+        <v>3359860</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9445556164470347</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9359954066219193</v>
+        <v>0.9365364190500108</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.951574250686623</v>
+        <v>0.9526675626115744</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5891</v>
@@ -1723,19 +1723,19 @@
         <v>6226148</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6174523</v>
+        <v>6177879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6276321</v>
+        <v>6277216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9031157567337637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8956275163403654</v>
+        <v>0.8961143091286781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9103934423792651</v>
+        <v>0.9105233358531312</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>87074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67972</v>
+        <v>69736</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105826</v>
+        <v>110078</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1745879814264901</v>
+        <v>0.17458798142649</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1362886445045654</v>
+        <v>0.1398244840036162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2121870470377619</v>
+        <v>0.2207125470085729</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -2088,19 +2088,19 @@
         <v>73894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60756</v>
+        <v>60955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90290</v>
+        <v>88453</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1184993167487363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09743077258297127</v>
+        <v>0.09775001444951398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1447927800272725</v>
+        <v>0.1418473795612734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -2109,19 +2109,19 @@
         <v>160968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>137600</v>
+        <v>138662</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>185056</v>
+        <v>188555</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1434241450973879</v>
+        <v>0.143424145097388</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1226032621345594</v>
+        <v>0.123548987868787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1648868192748688</v>
+        <v>0.1680050251072977</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>411665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>392913</v>
+        <v>388661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>430767</v>
+        <v>429003</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.82541201857351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7878129529622381</v>
+        <v>0.7792874529914269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8637113554954347</v>
+        <v>0.8601755159963833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>761</v>
@@ -2159,19 +2159,19 @@
         <v>549686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>533290</v>
+        <v>535127</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>562824</v>
+        <v>562625</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8815006832512637</v>
+        <v>0.8815006832512635</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8552072199727276</v>
+        <v>0.8581526204387264</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9025692274170288</v>
+        <v>0.9022499855504869</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1142</v>
@@ -2180,19 +2180,19 @@
         <v>961352</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>937264</v>
+        <v>933765</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>984720</v>
+        <v>983658</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8565758549026121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8351131807251312</v>
+        <v>0.8319949748927024</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8773967378654404</v>
+        <v>0.8764510121312129</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>190754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>164103</v>
+        <v>160814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219878</v>
+        <v>219002</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1986732963802358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1709159321845395</v>
+        <v>0.1674902428823144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2290070253836243</v>
+        <v>0.2280940983701358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>148</v>
@@ -2305,19 +2305,19 @@
         <v>107213</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91310</v>
+        <v>91312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126566</v>
+        <v>127136</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09608230555727394</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08183023357206423</v>
+        <v>0.08183174844704212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1134254356116469</v>
+        <v>0.1139367404784608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>307</v>
@@ -2326,19 +2326,19 @@
         <v>297967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>266355</v>
+        <v>263479</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>332386</v>
+        <v>331146</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1435303006804244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1283028068194025</v>
+        <v>0.1269177162500818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1601101060891547</v>
+        <v>0.1595125252520557</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>769383</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>740259</v>
+        <v>741135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>796034</v>
+        <v>799323</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8013267036197643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7709929746163756</v>
+        <v>0.7719059016298642</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8290840678154606</v>
+        <v>0.8325097571176855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1459</v>
@@ -2376,19 +2376,19 @@
         <v>1008636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>989283</v>
+        <v>988713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1024539</v>
+        <v>1024537</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.903917694442726</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8865745643883528</v>
+        <v>0.8860632595215393</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9181697664279356</v>
+        <v>0.9181682515529584</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2210</v>
@@ -2397,19 +2397,19 @@
         <v>1778019</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1743600</v>
+        <v>1744840</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1809631</v>
+        <v>1812507</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8564696993195757</v>
+        <v>0.8564696993195755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8398898939108455</v>
+        <v>0.8404874747479445</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8716971931805978</v>
+        <v>0.873082283749918</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>253678</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>225622</v>
+        <v>223362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>284141</v>
+        <v>284743</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2424113642834755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2156012477346275</v>
+        <v>0.2134417429597736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2715211847212063</v>
+        <v>0.2720964018683105</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>250</v>
@@ -2522,19 +2522,19 @@
         <v>165430</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>144852</v>
+        <v>145458</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>187580</v>
+        <v>186918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1579073315359656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.138264904725223</v>
+        <v>0.1388435658925868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1790501401700344</v>
+        <v>0.1784180004943858</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>476</v>
@@ -2543,19 +2543,19 @@
         <v>419109</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>379781</v>
+        <v>381223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>461046</v>
+        <v>456339</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2001358956160878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1813558890139675</v>
+        <v>0.1820444122509635</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2201621320093113</v>
+        <v>0.2179145189500895</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>792801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>762338</v>
+        <v>761736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820857</v>
+        <v>823117</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7575886357165245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7284788152787938</v>
+        <v>0.7279035981316895</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7843987522653724</v>
+        <v>0.7865582570402263</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1266</v>
@@ -2593,19 +2593,19 @@
         <v>882212</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>860062</v>
+        <v>860724</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>902790</v>
+        <v>902184</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8420926684640344</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8209498598299656</v>
+        <v>0.8215819995056144</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8617350952747768</v>
+        <v>0.8611564341074133</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2069</v>
@@ -2614,19 +2614,19 @@
         <v>1675012</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1633075</v>
+        <v>1637782</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1714340</v>
+        <v>1712898</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7998641043839123</v>
+        <v>0.7998641043839122</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7798378679906885</v>
+        <v>0.7820854810499104</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8186441109860324</v>
+        <v>0.8179555877490364</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>410825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>376735</v>
+        <v>378787</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>446164</v>
+        <v>445899</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4209574988532542</v>
+        <v>0.4209574988532543</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3860272459903288</v>
+        <v>0.3881297791954773</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4571684098832189</v>
+        <v>0.4568964598887837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>461</v>
@@ -2739,19 +2739,19 @@
         <v>307115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>282194</v>
+        <v>280950</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335184</v>
+        <v>334406</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3373613800943548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3099860723273138</v>
+        <v>0.3086189877635265</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.368194134655527</v>
+        <v>0.3673400570364224</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>845</v>
@@ -2760,19 +2760,19 @@
         <v>717940</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>676510</v>
+        <v>675283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>767365</v>
+        <v>764130</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3806127236294394</v>
+        <v>0.3806127236294393</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3586487169532902</v>
+        <v>0.3579981541304517</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4068153311961004</v>
+        <v>0.4051003294535491</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>565104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>529765</v>
+        <v>530030</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>599194</v>
+        <v>597142</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5790425011467457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5428315901167812</v>
+        <v>0.5431035401112162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6139727540096712</v>
+        <v>0.6118702208045227</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>863</v>
@@ -2810,19 +2810,19 @@
         <v>603230</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>575161</v>
+        <v>575939</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>628151</v>
+        <v>629395</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6626386199056451</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6318058653444729</v>
+        <v>0.6326599429635775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6900139276726863</v>
+        <v>0.6913810122364735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1426</v>
@@ -2831,19 +2831,19 @@
         <v>1168334</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1118909</v>
+        <v>1122144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1209764</v>
+        <v>1210991</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6193872763705608</v>
+        <v>0.6193872763705607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5931846688038995</v>
+        <v>0.5948996705464508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6413512830467096</v>
+        <v>0.6420018458695481</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>942330</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>882857</v>
+        <v>879228</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1003561</v>
+        <v>1003729</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2706847395427335</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2536009888477535</v>
+        <v>0.2525586136078688</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2882733159474467</v>
+        <v>0.2883216151850533</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>959</v>
@@ -2956,19 +2956,19 @@
         <v>653653</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>614987</v>
+        <v>611537</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>701949</v>
+        <v>695166</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.176786355768364</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1663287484844984</v>
+        <v>0.1653958568199354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1898484999937692</v>
+        <v>0.1880139802200414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1802</v>
@@ -2977,19 +2977,19 @@
         <v>1595983</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1520462</v>
+        <v>1523527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1666135</v>
+        <v>1672367</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2223220313923502</v>
+        <v>0.2223220313923503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2118018967955414</v>
+        <v>0.2122288321632959</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2320942483694901</v>
+        <v>0.2329624112913733</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2538954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2477723</v>
+        <v>2477555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2598427</v>
+        <v>2602056</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7293152604572666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.711726684052553</v>
+        <v>0.7116783848149471</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7463990111522457</v>
+        <v>0.7474413863921314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4349</v>
@@ -3027,19 +3027,19 @@
         <v>3043763</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2995467</v>
+        <v>3002250</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3082429</v>
+        <v>3085879</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8232136442316358</v>
+        <v>0.8232136442316359</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8101515000062307</v>
+        <v>0.8119860197799582</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8336712515155011</v>
+        <v>0.8346041431800646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6847</v>
@@ -3048,19 +3048,19 @@
         <v>5582718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5512566</v>
+        <v>5506334</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5658239</v>
+        <v>5655174</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7776779686076498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7679057516305099</v>
+        <v>0.7670375887086268</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7881981032044586</v>
+        <v>0.7877711678367043</v>
       </c>
     </row>
     <row r="18">
